--- a/Code/Results/Cases/Case_0_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_145/res_bus/vm_pu.xlsx
@@ -418,43 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.097205796947011</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.099856455774556</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.095262943555872</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.100346054707249</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.03003759695652</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.102003611666362</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.102480098163674</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.097898192661956</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.102968466152379</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.103568583196509</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8330693681401536</v>
+        <v>1.102241083106902</v>
       </c>
       <c r="D3">
-        <v>0.8429790916850008</v>
+        <v>1.104814097195892</v>
       </c>
       <c r="E3">
-        <v>0.8623180113033162</v>
+        <v>1.099729372610027</v>
       </c>
       <c r="F3">
-        <v>0.8710274465264191</v>
+        <v>1.10477024681982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033352914007366</v>
+        <v>1.03024986411576</v>
       </c>
       <c r="J3">
-        <v>0.8594400456481384</v>
+        <v>1.106688352599673</v>
       </c>
       <c r="K3">
-        <v>0.856112456323313</v>
+        <v>1.107249946084999</v>
       </c>
       <c r="L3">
-        <v>0.8750792523821244</v>
+        <v>1.102177057440727</v>
       </c>
       <c r="M3">
-        <v>0.8836281204775407</v>
+        <v>1.107206197282106</v>
       </c>
       <c r="N3">
-        <v>0.8606605490921099</v>
+        <v>1.108259976999293</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8751587131409482</v>
+        <v>1.105455937361601</v>
       </c>
       <c r="D4">
-        <v>0.8838859122466174</v>
+        <v>1.107979333719769</v>
       </c>
       <c r="E4">
-        <v>0.8994888703889226</v>
+        <v>1.102578944593439</v>
       </c>
       <c r="F4">
-        <v>0.9078059711635654</v>
+        <v>1.107592016347746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036241776036885</v>
+        <v>1.030381538642308</v>
       </c>
       <c r="J4">
-        <v>0.8984020284479886</v>
+        <v>1.109677473699487</v>
       </c>
       <c r="K4">
-        <v>0.8956221523216756</v>
+        <v>1.110293935159551</v>
       </c>
       <c r="L4">
-        <v>0.9109735690282885</v>
+        <v>1.104905431633896</v>
       </c>
       <c r="M4">
-        <v>0.9191610972322204</v>
+        <v>1.109907466102745</v>
       </c>
       <c r="N4">
-        <v>0.8996778623765376</v>
+        <v>1.111253342993926</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.8897212379094557</v>
+        <v>1.106797496022318</v>
       </c>
       <c r="D5">
-        <v>0.8980558183230535</v>
+        <v>1.109300174621315</v>
       </c>
       <c r="E5">
-        <v>0.9123765741744696</v>
+        <v>1.103767568564554</v>
       </c>
       <c r="F5">
-        <v>0.9205728011087948</v>
+        <v>1.108768834415345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037245593996934</v>
+        <v>1.030435559644966</v>
       </c>
       <c r="J5">
-        <v>0.9118912803458736</v>
+        <v>1.110924373127348</v>
       </c>
       <c r="K5">
-        <v>0.9093026265234474</v>
+        <v>1.111563857642513</v>
       </c>
       <c r="L5">
-        <v>0.9234069866064589</v>
+        <v>1.106043135490101</v>
       </c>
       <c r="M5">
-        <v>0.9314832039601981</v>
+        <v>1.111033653248121</v>
       </c>
       <c r="N5">
-        <v>0.9131862705593569</v>
+        <v>1.112502013161995</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.8920385874184181</v>
+        <v>1.107022176622148</v>
       </c>
       <c r="D6">
-        <v>0.9003113974135748</v>
+        <v>1.109521384698505</v>
       </c>
       <c r="E6">
-        <v>0.9144284598315641</v>
+        <v>1.103966606514093</v>
       </c>
       <c r="F6">
-        <v>0.9226060817670755</v>
+        <v>1.10896588306443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03740538133187</v>
+        <v>1.030444552404358</v>
       </c>
       <c r="J6">
-        <v>0.9140380953049112</v>
+        <v>1.111133173396939</v>
       </c>
       <c r="K6">
-        <v>0.9114799729640668</v>
+        <v>1.111776521175889</v>
       </c>
       <c r="L6">
-        <v>0.9253859454672777</v>
+        <v>1.106233625316822</v>
       </c>
       <c r="M6">
-        <v>0.9334450308124957</v>
+        <v>1.111222202109348</v>
       </c>
       <c r="N6">
-        <v>0.9153361342418791</v>
+        <v>1.112711109951919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8753627444022526</v>
+        <v>1.10547390197165</v>
       </c>
       <c r="D7">
-        <v>0.8840843881234421</v>
+        <v>1.107997020951994</v>
       </c>
       <c r="E7">
-        <v>0.8996693527470041</v>
+        <v>1.102594863261474</v>
       </c>
       <c r="F7">
-        <v>0.9079847112030698</v>
+        <v>1.107607777733405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036255833066787</v>
+        <v>1.030382265687932</v>
       </c>
       <c r="J7">
-        <v>0.8985909998287688</v>
+        <v>1.10969417255856</v>
       </c>
       <c r="K7">
-        <v>0.8958137956686025</v>
+        <v>1.110310941818156</v>
       </c>
       <c r="L7">
-        <v>0.911147733251883</v>
+        <v>1.104920669792995</v>
       </c>
       <c r="M7">
-        <v>0.9193336568998302</v>
+        <v>1.109922550858633</v>
       </c>
       <c r="N7">
-        <v>0.8998671021183541</v>
+        <v>1.111270065567294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.7624275673979352</v>
+        <v>1.098916711675844</v>
       </c>
       <c r="D8">
-        <v>0.7745205550651663</v>
+        <v>1.101540996199558</v>
       </c>
       <c r="E8">
-        <v>0.8002977925861922</v>
+        <v>1.096781003533197</v>
       </c>
       <c r="F8">
-        <v>0.8098412963196492</v>
+        <v>1.101849935434423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028601567868896</v>
+        <v>1.030110523787943</v>
       </c>
       <c r="J8">
-        <v>0.7942043460045441</v>
+        <v>1.103595817710699</v>
       </c>
       <c r="K8">
-        <v>0.7899657702730186</v>
+        <v>1.104101111340473</v>
       </c>
       <c r="L8">
-        <v>0.8150916730870403</v>
+        <v>1.099352823934978</v>
       </c>
       <c r="M8">
-        <v>0.8244081047062211</v>
+        <v>1.104409294624195</v>
       </c>
       <c r="N8">
-        <v>0.7953322072723822</v>
+        <v>1.105163050356058</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7624275673979352</v>
+        <v>1.087011415254083</v>
       </c>
       <c r="D9">
-        <v>0.7745205550651663</v>
+        <v>1.089819108464829</v>
       </c>
       <c r="E9">
-        <v>0.8002977925861922</v>
+        <v>1.086209014071905</v>
       </c>
       <c r="F9">
-        <v>0.8098412963196492</v>
+        <v>1.091373258420965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028601567868896</v>
+        <v>1.029587071389653</v>
       </c>
       <c r="J9">
-        <v>0.7942043460045441</v>
+        <v>1.092508486732914</v>
       </c>
       <c r="K9">
-        <v>0.7899657702730186</v>
+        <v>1.09281556913983</v>
       </c>
       <c r="L9">
-        <v>0.8150916730870403</v>
+        <v>1.089216056672642</v>
       </c>
       <c r="M9">
-        <v>0.8244081047062211</v>
+        <v>1.094365187006086</v>
       </c>
       <c r="N9">
-        <v>0.7953322072723822</v>
+        <v>1.09405997409655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7624275673979352</v>
+        <v>1.078810870145601</v>
       </c>
       <c r="D10">
-        <v>0.7745205550651663</v>
+        <v>1.081744832987181</v>
       </c>
       <c r="E10">
-        <v>0.8002977925861922</v>
+        <v>1.078916015947601</v>
       </c>
       <c r="F10">
-        <v>0.8098412963196492</v>
+        <v>1.084141841622692</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028601567868896</v>
+        <v>1.029206438559473</v>
       </c>
       <c r="J10">
-        <v>0.7942043460045441</v>
+        <v>1.084861167543222</v>
       </c>
       <c r="K10">
-        <v>0.7899657702730186</v>
+        <v>1.08503457619634</v>
       </c>
       <c r="L10">
-        <v>0.8150916730870403</v>
+        <v>1.082214976589448</v>
       </c>
       <c r="M10">
-        <v>0.8244081047062211</v>
+        <v>1.087423815644835</v>
       </c>
       <c r="N10">
-        <v>0.7953322072723822</v>
+        <v>1.086401794836449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7624275673979352</v>
+        <v>1.075190749844811</v>
       </c>
       <c r="D11">
-        <v>0.7745205550651663</v>
+        <v>1.078180466214283</v>
       </c>
       <c r="E11">
-        <v>0.8002977925861922</v>
+        <v>1.07569399550006</v>
       </c>
       <c r="F11">
-        <v>0.8098412963196492</v>
+        <v>1.080946099028364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028601567868896</v>
+        <v>1.029033709559118</v>
       </c>
       <c r="J11">
-        <v>0.7942043460045441</v>
+        <v>1.081482851981503</v>
       </c>
       <c r="K11">
-        <v>0.7899657702730186</v>
+        <v>1.08159793430711</v>
       </c>
       <c r="L11">
-        <v>0.8150916730870403</v>
+        <v>1.079119926228479</v>
       </c>
       <c r="M11">
-        <v>0.8244081047062211</v>
+        <v>1.084354204617634</v>
       </c>
       <c r="N11">
-        <v>0.7953322072723822</v>
+        <v>1.083018681679134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7624275673979352</v>
+        <v>1.073835070191877</v>
       </c>
       <c r="D12">
-        <v>0.7745205550651663</v>
+        <v>1.076845669648886</v>
       </c>
       <c r="E12">
-        <v>0.8002977925861922</v>
+        <v>1.074487020983404</v>
       </c>
       <c r="F12">
-        <v>0.8098412963196492</v>
+        <v>1.079748834136754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028601567868896</v>
+        <v>1.028968325018433</v>
       </c>
       <c r="J12">
-        <v>0.7942043460045441</v>
+        <v>1.080217362083851</v>
       </c>
       <c r="K12">
-        <v>0.7899657702730186</v>
+        <v>1.080310705292032</v>
       </c>
       <c r="L12">
-        <v>0.8150916730870403</v>
+        <v>1.077960212611094</v>
       </c>
       <c r="M12">
-        <v>0.8244081047062211</v>
+        <v>1.083203884726891</v>
       </c>
       <c r="N12">
-        <v>0.7953322072723822</v>
+        <v>1.081751394640673</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7624275673979352</v>
+        <v>1.074126376227766</v>
       </c>
       <c r="D13">
-        <v>0.7745205550651663</v>
+        <v>1.077132488131576</v>
       </c>
       <c r="E13">
-        <v>0.8002977925861922</v>
+        <v>1.074746390507556</v>
       </c>
       <c r="F13">
-        <v>0.8098412963196492</v>
+        <v>1.080006123109426</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028601567868896</v>
+        <v>1.028982406283243</v>
       </c>
       <c r="J13">
-        <v>0.7942043460045441</v>
+        <v>1.080489304675743</v>
       </c>
       <c r="K13">
-        <v>0.7899657702730186</v>
+        <v>1.080587314474829</v>
       </c>
       <c r="L13">
-        <v>0.8150916730870403</v>
+        <v>1.078209439830369</v>
       </c>
       <c r="M13">
-        <v>0.8244081047062211</v>
+        <v>1.083451099361367</v>
       </c>
       <c r="N13">
-        <v>0.7953322072723822</v>
+        <v>1.082023723422238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7624275673979352</v>
+        <v>1.075078917081908</v>
       </c>
       <c r="D14">
-        <v>0.7745205550651663</v>
+        <v>1.078070356038701</v>
       </c>
       <c r="E14">
-        <v>0.8002977925861922</v>
+        <v>1.075594437376597</v>
       </c>
       <c r="F14">
-        <v>0.8098412963196492</v>
+        <v>1.080847344506427</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028601567868896</v>
+        <v>1.029028330067507</v>
       </c>
       <c r="J14">
-        <v>0.7942043460045441</v>
+        <v>1.081378466524621</v>
       </c>
       <c r="K14">
-        <v>0.7899657702730186</v>
+        <v>1.081491753443892</v>
       </c>
       <c r="L14">
-        <v>0.8150916730870403</v>
+        <v>1.079024272615704</v>
       </c>
       <c r="M14">
-        <v>0.8244081047062211</v>
+        <v>1.084259328586282</v>
       </c>
       <c r="N14">
-        <v>0.7953322072723822</v>
+        <v>1.082914147982931</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7624275673979352</v>
+        <v>1.075664331863487</v>
       </c>
       <c r="D15">
-        <v>0.7745205550651663</v>
+        <v>1.078646753721754</v>
       </c>
       <c r="E15">
-        <v>0.8002977925861922</v>
+        <v>1.076115582312352</v>
       </c>
       <c r="F15">
-        <v>0.8098412963196492</v>
+        <v>1.081364277485475</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028601567868896</v>
+        <v>1.029056461731918</v>
       </c>
       <c r="J15">
-        <v>0.7942043460045441</v>
+        <v>1.081924881849882</v>
       </c>
       <c r="K15">
-        <v>0.7899657702730186</v>
+        <v>1.082047571459123</v>
       </c>
       <c r="L15">
-        <v>0.8150916730870403</v>
+        <v>1.07952496672795</v>
       </c>
       <c r="M15">
-        <v>0.8244081047062211</v>
+        <v>1.084755946872524</v>
       </c>
       <c r="N15">
-        <v>0.7953322072723822</v>
+        <v>1.083461339280627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7624275673979352</v>
+        <v>1.079049616210123</v>
       </c>
       <c r="D16">
-        <v>0.7745205550651663</v>
+        <v>1.081979902574649</v>
       </c>
       <c r="E16">
-        <v>0.8002977925861922</v>
+        <v>1.079128454725153</v>
       </c>
       <c r="F16">
-        <v>0.8098412963196492</v>
+        <v>1.084352528857266</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028601567868896</v>
+        <v>1.029217732239269</v>
       </c>
       <c r="J16">
-        <v>0.7942043460045441</v>
+        <v>1.085083916176196</v>
       </c>
       <c r="K16">
-        <v>0.7899657702730186</v>
+        <v>1.085261185771996</v>
       </c>
       <c r="L16">
-        <v>0.8150916730870403</v>
+        <v>1.082419001855718</v>
       </c>
       <c r="M16">
-        <v>0.8244081047062211</v>
+        <v>1.087626144411725</v>
       </c>
       <c r="N16">
-        <v>0.7953322072723822</v>
+        <v>1.086624859798031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7624275673979352</v>
+        <v>1.08115416507905</v>
       </c>
       <c r="D17">
-        <v>0.7745205550651663</v>
+        <v>1.084052044917847</v>
       </c>
       <c r="E17">
-        <v>0.8002977925861922</v>
+        <v>1.081000815085156</v>
       </c>
       <c r="F17">
-        <v>0.8098412963196492</v>
+        <v>1.086209346237634</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028601567868896</v>
+        <v>1.029316749470137</v>
       </c>
       <c r="J17">
-        <v>0.7942043460045441</v>
+        <v>1.087047171298184</v>
       </c>
       <c r="K17">
-        <v>0.7899657702730186</v>
+        <v>1.087258553390899</v>
       </c>
       <c r="L17">
-        <v>0.8150916730870403</v>
+        <v>1.084216979833647</v>
       </c>
       <c r="M17">
-        <v>0.8244081047062211</v>
+        <v>1.089409063251896</v>
       </c>
       <c r="N17">
-        <v>0.7953322072723822</v>
+        <v>1.088590902967481</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7624275673979352</v>
+        <v>1.082375075823629</v>
       </c>
       <c r="D18">
-        <v>0.7745205550651663</v>
+        <v>1.085254156655257</v>
       </c>
       <c r="E18">
-        <v>0.8002977925861922</v>
+        <v>1.082086784334738</v>
       </c>
       <c r="F18">
-        <v>0.8098412963196492</v>
+        <v>1.087286211665748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028601567868896</v>
+        <v>1.02937374368968</v>
       </c>
       <c r="J18">
-        <v>0.7942043460045441</v>
+        <v>1.088185882890261</v>
       </c>
       <c r="K18">
-        <v>0.7899657702730186</v>
+        <v>1.088417119833208</v>
       </c>
       <c r="L18">
-        <v>0.8150916730870403</v>
+        <v>1.085259616932336</v>
       </c>
       <c r="M18">
-        <v>0.8244081047062211</v>
+        <v>1.090442876096128</v>
       </c>
       <c r="N18">
-        <v>0.7953322072723822</v>
+        <v>1.08973123166063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7624275673979352</v>
+        <v>1.082790266859505</v>
       </c>
       <c r="D19">
-        <v>0.7745205550651663</v>
+        <v>1.085662954869026</v>
       </c>
       <c r="E19">
-        <v>0.8002977925861922</v>
+        <v>1.082456045092965</v>
       </c>
       <c r="F19">
-        <v>0.8098412963196492</v>
+        <v>1.087652361627115</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028601567868896</v>
+        <v>1.029393049264512</v>
       </c>
       <c r="J19">
-        <v>0.7942043460045441</v>
+        <v>1.088573081624227</v>
       </c>
       <c r="K19">
-        <v>0.7899657702730186</v>
+        <v>1.088811081582456</v>
       </c>
       <c r="L19">
-        <v>0.8150916730870403</v>
+        <v>1.085614111287583</v>
       </c>
       <c r="M19">
-        <v>0.8244081047062211</v>
+        <v>1.090794354538268</v>
       </c>
       <c r="N19">
-        <v>0.7953322072723822</v>
+        <v>1.090118980261211</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7624275673979352</v>
+        <v>1.080929057654547</v>
       </c>
       <c r="D20">
-        <v>0.7745205550651663</v>
+        <v>1.083830403652535</v>
       </c>
       <c r="E20">
-        <v>0.8002977925861922</v>
+        <v>1.080800568150406</v>
       </c>
       <c r="F20">
-        <v>0.8098412963196492</v>
+        <v>1.086010770784566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028601567868896</v>
+        <v>1.029306204814299</v>
       </c>
       <c r="J20">
-        <v>0.7942043460045441</v>
+        <v>1.08683720086743</v>
       </c>
       <c r="K20">
-        <v>0.7899657702730186</v>
+        <v>1.087044927448315</v>
       </c>
       <c r="L20">
-        <v>0.8150916730870403</v>
+        <v>1.08402470776275</v>
       </c>
       <c r="M20">
-        <v>0.8244081047062211</v>
+        <v>1.089218411027042</v>
       </c>
       <c r="N20">
-        <v>0.7953322072723822</v>
+        <v>1.088380634354631</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7624275673979352</v>
+        <v>1.07479872639588</v>
       </c>
       <c r="D21">
-        <v>0.7745205550651663</v>
+        <v>1.077794481275123</v>
       </c>
       <c r="E21">
-        <v>0.8002977925861922</v>
+        <v>1.075344994040854</v>
       </c>
       <c r="F21">
-        <v>0.8098412963196492</v>
+        <v>1.08059991245492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028601567868896</v>
+        <v>1.029014840786671</v>
       </c>
       <c r="J21">
-        <v>0.7942043460045441</v>
+        <v>1.081116928803563</v>
       </c>
       <c r="K21">
-        <v>0.7899657702730186</v>
+        <v>1.081225719098771</v>
       </c>
       <c r="L21">
-        <v>0.8150916730870403</v>
+        <v>1.078784607168648</v>
       </c>
       <c r="M21">
-        <v>0.8244081047062211</v>
+        <v>1.084021609200794</v>
       </c>
       <c r="N21">
-        <v>0.7953322072723822</v>
+        <v>1.082652238848309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7624275673979352</v>
+        <v>1.070880341159736</v>
       </c>
       <c r="D22">
-        <v>0.7745205550651663</v>
+        <v>1.073936466285643</v>
       </c>
       <c r="E22">
-        <v>0.8002977925861922</v>
+        <v>1.071855709703944</v>
       </c>
       <c r="F22">
-        <v>0.8098412963196492</v>
+        <v>1.077138450654387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028601567868896</v>
+        <v>1.028824539695607</v>
       </c>
       <c r="J22">
-        <v>0.7942043460045441</v>
+        <v>1.077458538841169</v>
       </c>
       <c r="K22">
-        <v>0.7899657702730186</v>
+        <v>1.077504691170835</v>
       </c>
       <c r="L22">
-        <v>0.8150916730870403</v>
+        <v>1.075431376945547</v>
       </c>
       <c r="M22">
-        <v>0.8244081047062211</v>
+        <v>1.080695284768548</v>
       </c>
       <c r="N22">
-        <v>0.7953322072723822</v>
+        <v>1.078988653552545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7624275673979352</v>
+        <v>1.072963829640224</v>
       </c>
       <c r="D23">
-        <v>0.7745205550651663</v>
+        <v>1.07598785132572</v>
       </c>
       <c r="E23">
-        <v>0.8002977925861922</v>
+        <v>1.073711241477137</v>
       </c>
       <c r="F23">
-        <v>0.8098412963196492</v>
+        <v>1.078979258383869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028601567868896</v>
+        <v>1.02892610854825</v>
       </c>
       <c r="J23">
-        <v>0.7942043460045441</v>
+        <v>1.079403980845606</v>
       </c>
       <c r="K23">
-        <v>0.7899657702730186</v>
+        <v>1.079483382327575</v>
       </c>
       <c r="L23">
-        <v>0.8150916730870403</v>
+        <v>1.07721472449353</v>
       </c>
       <c r="M23">
-        <v>0.8244081047062211</v>
+        <v>1.082464396802666</v>
       </c>
       <c r="N23">
-        <v>0.7953322072723822</v>
+        <v>1.080936858307774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7624275673979352</v>
+        <v>1.081030794477033</v>
       </c>
       <c r="D24">
-        <v>0.7745205550651663</v>
+        <v>1.083930573948909</v>
       </c>
       <c r="E24">
-        <v>0.8002977925861922</v>
+        <v>1.080891070077509</v>
       </c>
       <c r="F24">
-        <v>0.8098412963196492</v>
+        <v>1.086100517558573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028601567868896</v>
+        <v>1.029310971838989</v>
       </c>
       <c r="J24">
-        <v>0.7942043460045441</v>
+        <v>1.086932097271684</v>
       </c>
       <c r="K24">
-        <v>0.7899657702730186</v>
+        <v>1.087141475751509</v>
       </c>
       <c r="L24">
-        <v>0.8150916730870403</v>
+        <v>1.084111606026697</v>
       </c>
       <c r="M24">
-        <v>0.8244081047062211</v>
+        <v>1.089304577477982</v>
       </c>
       <c r="N24">
-        <v>0.7953322072723822</v>
+        <v>1.088475665522664</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7624275673979352</v>
+        <v>1.090133556350051</v>
       </c>
       <c r="D25">
-        <v>0.7745205550651663</v>
+        <v>1.092893170982293</v>
       </c>
       <c r="E25">
-        <v>0.8002977925861922</v>
+        <v>1.088983394145656</v>
       </c>
       <c r="F25">
-        <v>0.8098412963196492</v>
+        <v>1.094123368340769</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028601567868896</v>
+        <v>1.029727849031466</v>
       </c>
       <c r="J25">
-        <v>0.7942043460045441</v>
+        <v>1.095417889327452</v>
       </c>
       <c r="K25">
-        <v>0.7899657702730186</v>
+        <v>1.095776458364883</v>
       </c>
       <c r="L25">
-        <v>0.8150916730870403</v>
+        <v>1.091877656641324</v>
       </c>
       <c r="M25">
-        <v>0.8244081047062211</v>
+        <v>1.097003220035098</v>
       </c>
       <c r="N25">
-        <v>0.7953322072723822</v>
+        <v>1.096973508376485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.097205796947011</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.099856455774556</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.095262943555872</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100346054707249</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.03003759695652</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.102003611666362</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.102480098163674</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.097898192661956</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.102968466152379</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.103568583196509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.102241083106902</v>
+        <v>0.8330693681401671</v>
       </c>
       <c r="D3">
-        <v>1.104814097195892</v>
+        <v>0.8429790916850142</v>
       </c>
       <c r="E3">
-        <v>1.099729372610027</v>
+        <v>0.862318011303328</v>
       </c>
       <c r="F3">
-        <v>1.10477024681982</v>
+        <v>0.8710274465264303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03024986411576</v>
+        <v>1.033352914007367</v>
       </c>
       <c r="J3">
-        <v>1.106688352599673</v>
+        <v>0.8594400456481511</v>
       </c>
       <c r="K3">
-        <v>1.107249946084999</v>
+        <v>0.8561124563233258</v>
       </c>
       <c r="L3">
-        <v>1.102177057440727</v>
+        <v>0.875079252382136</v>
       </c>
       <c r="M3">
-        <v>1.107206197282106</v>
+        <v>0.8836281204775519</v>
       </c>
       <c r="N3">
-        <v>1.108259976999293</v>
+        <v>0.8606605490921226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.105455937361601</v>
+        <v>0.8751587131409568</v>
       </c>
       <c r="D4">
-        <v>1.107979333719769</v>
+        <v>0.8838859122466263</v>
       </c>
       <c r="E4">
-        <v>1.102578944593439</v>
+        <v>0.89948887038893</v>
       </c>
       <c r="F4">
-        <v>1.107592016347746</v>
+        <v>0.9078059711635726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030381538642308</v>
+        <v>1.036241776036886</v>
       </c>
       <c r="J4">
-        <v>1.109677473699487</v>
+        <v>0.8984020284479968</v>
       </c>
       <c r="K4">
-        <v>1.110293935159551</v>
+        <v>0.8956221523216842</v>
       </c>
       <c r="L4">
-        <v>1.104905431633896</v>
+        <v>0.9109735690282958</v>
       </c>
       <c r="M4">
-        <v>1.109907466102745</v>
+        <v>0.9191610972322275</v>
       </c>
       <c r="N4">
-        <v>1.111253342993926</v>
+        <v>0.899677862376546</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.106797496022318</v>
+        <v>0.8897212379094567</v>
       </c>
       <c r="D5">
-        <v>1.109300174621315</v>
+        <v>0.8980558183230547</v>
       </c>
       <c r="E5">
-        <v>1.103767568564554</v>
+        <v>0.9123765741744706</v>
       </c>
       <c r="F5">
-        <v>1.108768834415345</v>
+        <v>0.9205728011087952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030435559644966</v>
+        <v>1.037245593996934</v>
       </c>
       <c r="J5">
-        <v>1.110924373127348</v>
+        <v>0.9118912803458751</v>
       </c>
       <c r="K5">
-        <v>1.111563857642513</v>
+        <v>0.9093026265234487</v>
       </c>
       <c r="L5">
-        <v>1.106043135490101</v>
+        <v>0.9234069866064601</v>
       </c>
       <c r="M5">
-        <v>1.111033653248121</v>
+        <v>0.931483203960199</v>
       </c>
       <c r="N5">
-        <v>1.112502013161995</v>
+        <v>0.9131862705593579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.107022176622148</v>
+        <v>0.8920385874184206</v>
       </c>
       <c r="D6">
-        <v>1.109521384698505</v>
+        <v>0.9003113974135772</v>
       </c>
       <c r="E6">
-        <v>1.103966606514093</v>
+        <v>0.9144284598315662</v>
       </c>
       <c r="F6">
-        <v>1.10896588306443</v>
+        <v>0.9226060817670775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030444552404358</v>
+        <v>1.03740538133187</v>
       </c>
       <c r="J6">
-        <v>1.111133173396939</v>
+        <v>0.9140380953049136</v>
       </c>
       <c r="K6">
-        <v>1.111776521175889</v>
+        <v>0.9114799729640691</v>
       </c>
       <c r="L6">
-        <v>1.106233625316822</v>
+        <v>0.9253859454672799</v>
       </c>
       <c r="M6">
-        <v>1.111222202109348</v>
+        <v>0.9334450308124976</v>
       </c>
       <c r="N6">
-        <v>1.112711109951919</v>
+        <v>0.9153361342418816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.10547390197165</v>
+        <v>0.8753627444022536</v>
       </c>
       <c r="D7">
-        <v>1.107997020951994</v>
+        <v>0.884084388123443</v>
       </c>
       <c r="E7">
-        <v>1.102594863261474</v>
+        <v>0.8996693527470049</v>
       </c>
       <c r="F7">
-        <v>1.107607777733405</v>
+        <v>0.9079847112030707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030382265687932</v>
+        <v>1.036255833066787</v>
       </c>
       <c r="J7">
-        <v>1.10969417255856</v>
+        <v>0.8985909998287698</v>
       </c>
       <c r="K7">
-        <v>1.110310941818156</v>
+        <v>0.8958137956686032</v>
       </c>
       <c r="L7">
-        <v>1.104920669792995</v>
+        <v>0.9111477332518838</v>
       </c>
       <c r="M7">
-        <v>1.109922550858633</v>
+        <v>0.9193336568998309</v>
       </c>
       <c r="N7">
-        <v>1.111270065567294</v>
+        <v>0.8998671021183549</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.098916711675844</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D8">
-        <v>1.101540996199558</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E8">
-        <v>1.096781003533197</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F8">
-        <v>1.101849935434423</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030110523787943</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J8">
-        <v>1.103595817710699</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K8">
-        <v>1.104101111340473</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L8">
-        <v>1.099352823934978</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M8">
-        <v>1.104409294624195</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N8">
-        <v>1.105163050356058</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.087011415254083</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D9">
-        <v>1.089819108464829</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E9">
-        <v>1.086209014071905</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F9">
-        <v>1.091373258420965</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029587071389653</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J9">
-        <v>1.092508486732914</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K9">
-        <v>1.09281556913983</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L9">
-        <v>1.089216056672642</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M9">
-        <v>1.094365187006086</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N9">
-        <v>1.09405997409655</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.078810870145601</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D10">
-        <v>1.081744832987181</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E10">
-        <v>1.078916015947601</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F10">
-        <v>1.084141841622692</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029206438559473</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J10">
-        <v>1.084861167543222</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K10">
-        <v>1.08503457619634</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L10">
-        <v>1.082214976589448</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M10">
-        <v>1.087423815644835</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N10">
-        <v>1.086401794836449</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075190749844811</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D11">
-        <v>1.078180466214283</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E11">
-        <v>1.07569399550006</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F11">
-        <v>1.080946099028364</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029033709559118</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J11">
-        <v>1.081482851981503</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K11">
-        <v>1.08159793430711</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L11">
-        <v>1.079119926228479</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M11">
-        <v>1.084354204617634</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N11">
-        <v>1.083018681679134</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.073835070191877</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D12">
-        <v>1.076845669648886</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E12">
-        <v>1.074487020983404</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F12">
-        <v>1.079748834136754</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028968325018433</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J12">
-        <v>1.080217362083851</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K12">
-        <v>1.080310705292032</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L12">
-        <v>1.077960212611094</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M12">
-        <v>1.083203884726891</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N12">
-        <v>1.081751394640673</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.074126376227766</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D13">
-        <v>1.077132488131576</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E13">
-        <v>1.074746390507556</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F13">
-        <v>1.080006123109426</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028982406283243</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J13">
-        <v>1.080489304675743</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K13">
-        <v>1.080587314474829</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L13">
-        <v>1.078209439830369</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M13">
-        <v>1.083451099361367</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N13">
-        <v>1.082023723422238</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.075078917081908</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D14">
-        <v>1.078070356038701</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E14">
-        <v>1.075594437376597</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F14">
-        <v>1.080847344506427</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029028330067507</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J14">
-        <v>1.081378466524621</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K14">
-        <v>1.081491753443892</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L14">
-        <v>1.079024272615704</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M14">
-        <v>1.084259328586282</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N14">
-        <v>1.082914147982931</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075664331863487</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D15">
-        <v>1.078646753721754</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E15">
-        <v>1.076115582312352</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F15">
-        <v>1.081364277485475</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029056461731918</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J15">
-        <v>1.081924881849882</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K15">
-        <v>1.082047571459123</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L15">
-        <v>1.07952496672795</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M15">
-        <v>1.084755946872524</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N15">
-        <v>1.083461339280627</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.079049616210123</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D16">
-        <v>1.081979902574649</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E16">
-        <v>1.079128454725153</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F16">
-        <v>1.084352528857266</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029217732239269</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J16">
-        <v>1.085083916176196</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K16">
-        <v>1.085261185771996</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L16">
-        <v>1.082419001855718</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M16">
-        <v>1.087626144411725</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N16">
-        <v>1.086624859798031</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.08115416507905</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D17">
-        <v>1.084052044917847</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E17">
-        <v>1.081000815085156</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F17">
-        <v>1.086209346237634</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029316749470137</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J17">
-        <v>1.087047171298184</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K17">
-        <v>1.087258553390899</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L17">
-        <v>1.084216979833647</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M17">
-        <v>1.089409063251896</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N17">
-        <v>1.088590902967481</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.082375075823629</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D18">
-        <v>1.085254156655257</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E18">
-        <v>1.082086784334738</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F18">
-        <v>1.087286211665748</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02937374368968</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J18">
-        <v>1.088185882890261</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K18">
-        <v>1.088417119833208</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L18">
-        <v>1.085259616932336</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M18">
-        <v>1.090442876096128</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N18">
-        <v>1.08973123166063</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.082790266859505</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D19">
-        <v>1.085662954869026</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E19">
-        <v>1.082456045092965</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F19">
-        <v>1.087652361627115</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029393049264512</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J19">
-        <v>1.088573081624227</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K19">
-        <v>1.088811081582456</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L19">
-        <v>1.085614111287583</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M19">
-        <v>1.090794354538268</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N19">
-        <v>1.090118980261211</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.080929057654547</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D20">
-        <v>1.083830403652535</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E20">
-        <v>1.080800568150406</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F20">
-        <v>1.086010770784566</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029306204814299</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J20">
-        <v>1.08683720086743</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K20">
-        <v>1.087044927448315</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L20">
-        <v>1.08402470776275</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M20">
-        <v>1.089218411027042</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N20">
-        <v>1.088380634354631</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.07479872639588</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D21">
-        <v>1.077794481275123</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E21">
-        <v>1.075344994040854</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F21">
-        <v>1.08059991245492</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029014840786671</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J21">
-        <v>1.081116928803563</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K21">
-        <v>1.081225719098771</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L21">
-        <v>1.078784607168648</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M21">
-        <v>1.084021609200794</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N21">
-        <v>1.082652238848309</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.070880341159736</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D22">
-        <v>1.073936466285643</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E22">
-        <v>1.071855709703944</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F22">
-        <v>1.077138450654387</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028824539695607</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J22">
-        <v>1.077458538841169</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K22">
-        <v>1.077504691170835</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L22">
-        <v>1.075431376945547</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M22">
-        <v>1.080695284768548</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N22">
-        <v>1.078988653552545</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.072963829640224</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D23">
-        <v>1.07598785132572</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E23">
-        <v>1.073711241477137</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F23">
-        <v>1.078979258383869</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02892610854825</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J23">
-        <v>1.079403980845606</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K23">
-        <v>1.079483382327575</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L23">
-        <v>1.07721472449353</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M23">
-        <v>1.082464396802666</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N23">
-        <v>1.080936858307774</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.081030794477033</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D24">
-        <v>1.083930573948909</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E24">
-        <v>1.080891070077509</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F24">
-        <v>1.086100517558573</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029310971838989</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J24">
-        <v>1.086932097271684</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K24">
-        <v>1.087141475751509</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L24">
-        <v>1.084111606026697</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M24">
-        <v>1.089304577477982</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N24">
-        <v>1.088475665522664</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.090133556350051</v>
+        <v>0.7624275673979461</v>
       </c>
       <c r="D25">
-        <v>1.092893170982293</v>
+        <v>0.7745205550651771</v>
       </c>
       <c r="E25">
-        <v>1.088983394145656</v>
+        <v>0.8002977925862017</v>
       </c>
       <c r="F25">
-        <v>1.094123368340769</v>
+        <v>0.8098412963196585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029727849031466</v>
+        <v>1.028601567868896</v>
       </c>
       <c r="J25">
-        <v>1.095417889327452</v>
+        <v>0.7942043460045545</v>
       </c>
       <c r="K25">
-        <v>1.095776458364883</v>
+        <v>0.7899657702730293</v>
       </c>
       <c r="L25">
-        <v>1.091877656641324</v>
+        <v>0.8150916730870497</v>
       </c>
       <c r="M25">
-        <v>1.097003220035098</v>
+        <v>0.8244081047062302</v>
       </c>
       <c r="N25">
-        <v>1.096973508376485</v>
+        <v>0.7953322072723926</v>
       </c>
     </row>
   </sheetData>
